--- a/DTT-Test-Hour-Log-1_Lucas_Schilperoort.xlsx
+++ b/DTT-Test-Hour-Log-1_Lucas_Schilperoort.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\Maze generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Unity-Perfect-Maze-algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC55FBA-54BA-4A23-94DD-DE849A6C2E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F165CEEC-CEE6-426C-A0C3-668EBDC738EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="13560" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Subject</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Growing tree algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed maze drawer and direction bias </t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standaard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1694,7 +1697,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1725,7 +1728,7 @@
       <c r="E2" s="23"/>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
@@ -1760,10 +1763,16 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
       <c r="C5" s="18"/>
-      <c r="D5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="20"/>
       <c r="F5" s="4"/>
     </row>
@@ -1775,7 +1784,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -1783,7 +1792,7 @@
       <c r="E7" s="20"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
@@ -1791,7 +1800,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -1799,7 +1808,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
@@ -1807,7 +1816,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
@@ -1815,7 +1824,7 @@
       <c r="E11" s="20"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
@@ -1823,7 +1832,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
@@ -1831,7 +1840,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
@@ -1839,7 +1848,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -1847,7 +1856,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
@@ -1855,7 +1864,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="17"/>
       <c r="C17" s="18"/>
@@ -1863,7 +1872,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="17"/>
       <c r="C18" s="18"/>
@@ -1871,7 +1880,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
@@ -1879,7 +1888,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="17"/>
       <c r="C20" s="18"/>
@@ -1887,7 +1896,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -1895,7 +1904,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -1903,7 +1912,7 @@
       <c r="E22" s="20"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="17"/>
       <c r="C23" s="18"/>
@@ -1911,7 +1920,7 @@
       <c r="E23" s="20"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="17"/>
       <c r="C24" s="18"/>
@@ -1919,7 +1928,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="17"/>
       <c r="C25" s="18"/>
@@ -1927,7 +1936,7 @@
       <c r="E25" s="20"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="17"/>
       <c r="C26" s="18"/>
@@ -1935,7 +1944,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="17"/>
       <c r="C27" s="18"/>
@@ -1943,7 +1952,7 @@
       <c r="E27" s="20"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="17"/>
       <c r="C28" s="18"/>
@@ -1951,7 +1960,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1959,13 +1968,13 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>

--- a/DTT-Test-Hour-Log-1_Lucas_Schilperoort.xlsx
+++ b/DTT-Test-Hour-Log-1_Lucas_Schilperoort.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Unity-Perfect-Maze-algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F165CEEC-CEE6-426C-A0C3-668EBDC738EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BD52F4-D5A6-4361-AD7E-E08E63C87AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Subject</t>
   </si>
@@ -83,6 +83,21 @@
   </si>
   <si>
     <t xml:space="preserve">Fixed maze drawer and direction bias </t>
+  </si>
+  <si>
+    <t>Maze drawer</t>
+  </si>
+  <si>
+    <t>Added live drawing during generation</t>
+  </si>
+  <si>
+    <t>Implemented GPU Instancing for Maze drawer</t>
+  </si>
+  <si>
+    <t>Fixed more bias in algorithm and added new generation methods</t>
+  </si>
+  <si>
+    <t>28/02.2022</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1712,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1769,7 +1784,9 @@
       <c r="B5" s="17">
         <v>2</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="18">
+        <v>44619</v>
+      </c>
       <c r="D5" s="15" t="s">
         <v>9</v>
       </c>
@@ -1777,26 +1794,48 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="15"/>
+      <c r="A6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="20"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="15"/>
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="17">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="E7" s="20"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="17">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" s="4"/>
     </row>
@@ -1974,7 +2013,7 @@
       </c>
       <c r="B30" s="14">
         <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>

--- a/DTT-Test-Hour-Log-1_Lucas_Schilperoort.xlsx
+++ b/DTT-Test-Hour-Log-1_Lucas_Schilperoort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Unity-Perfect-Maze-algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BD52F4-D5A6-4361-AD7E-E08E63C87AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F020EC3A-E7DB-44EB-92D3-EB270220A74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DTT Test Hour Log" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Subject</t>
   </si>
@@ -85,9 +85,6 @@
     <t xml:space="preserve">Fixed maze drawer and direction bias </t>
   </si>
   <si>
-    <t>Maze drawer</t>
-  </si>
-  <si>
     <t>Added live drawing during generation</t>
   </si>
   <si>
@@ -98,6 +95,45 @@
   </si>
   <si>
     <t>28/02.2022</t>
+  </si>
+  <si>
+    <t>UI Controller</t>
+  </si>
+  <si>
+    <t>29/02/2022</t>
+  </si>
+  <si>
+    <t>Added First version of UI</t>
+  </si>
+  <si>
+    <t>Maze Drawer</t>
+  </si>
+  <si>
+    <t>Systems</t>
+  </si>
+  <si>
+    <t>Refactored Algorithhm, can now use multiple drawing methods</t>
+  </si>
+  <si>
+    <t>Implemented First version texture maze drawer</t>
+  </si>
+  <si>
+    <t>Implemented multi-threading for algorithm</t>
+  </si>
+  <si>
+    <t>2D Maze Drawer</t>
+  </si>
+  <si>
+    <t>3D Maze drawer</t>
+  </si>
+  <si>
+    <t>Fixed maze drawer not working with multi threading</t>
+  </si>
+  <si>
+    <t>Fixed drawing issues when using uneven mazes</t>
+  </si>
+  <si>
+    <t>Added controls for moving camera, and added controls to UI</t>
   </si>
 </sst>
 </file>
@@ -1709,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1795,103 +1831,161 @@
     </row>
     <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B6" s="17">
         <v>1</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B7" s="17">
         <v>3</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="17">
         <v>1</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="E9" s="20"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="20"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="E12" s="20"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="20"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="15"/>
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="20"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17">
+        <v>2</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="20"/>
       <c r="F15" s="4"/>
     </row>
@@ -1991,30 +2085,30 @@
       <c r="E27" s="20"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="20"/>
+    <row r="28" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="14">
+        <f>SUMIF(E4:E27,"&lt;&gt;x",B4:B27)</f>
+        <v>20</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="14">
-        <f>SUMIF(E4:E28,"&lt;&gt;x",B4:B28)</f>
-        <v>9</v>
-      </c>
+    <row r="30" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2029,20 +2123,12 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
